--- a/doc/PJ示例表格.xlsx
+++ b/doc/PJ示例表格.xlsx
@@ -195,7 +195,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,9 +210,9 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -225,12 +225,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0563c1"/>
-      <name val="等线"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
     </font>
@@ -262,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -276,20 +270,17 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -298,9 +289,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -611,35 +599,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="6" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="5" width="14.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
-      <c r="A1" s="8" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -651,7 +639,7 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -685,7 +673,7 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="22.5">
       <c r="A2" s="4">
         <v>20301234567</v>
       </c>
@@ -698,10 +686,10 @@
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>18112345678</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>44</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -710,10 +698,10 @@
       <c r="H2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>45</v>
       </c>
       <c r="K2" s="3"/>
@@ -732,8 +720,8 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75">
-      <c r="A3" s="5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="22.5">
+      <c r="A3" s="4">
         <v>20301234568</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -745,10 +733,10 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>18212345678</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>48</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -757,10 +745,10 @@
       <c r="H3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>45</v>
       </c>
       <c r="K3" s="3"/>
@@ -779,17 +767,17 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="9"/>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="22.5">
+      <c r="A4" s="8"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -806,12 +794,12 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="9"/>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+      <c r="A5" s="8"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="9"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -833,12 +821,12 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="9"/>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+      <c r="A6" s="8"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="9"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -860,12 +848,12 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="9"/>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+      <c r="A7" s="8"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="9"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -887,12 +875,12 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="9"/>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+      <c r="A8" s="8"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="9"/>
+      <c r="E8" s="8"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -914,12 +902,12 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="9"/>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
+      <c r="A9" s="8"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="9"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -941,12 +929,12 @@
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="9"/>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+      <c r="A10" s="8"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="9"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -968,12 +956,12 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="9"/>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
+      <c r="A11" s="8"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="9"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -995,12 +983,12 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="9"/>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
+      <c r="A12" s="8"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="9"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1022,12 +1010,12 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="9"/>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
+      <c r="A13" s="8"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="9"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1049,12 +1037,12 @@
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="9"/>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
+      <c r="A14" s="8"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="9"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1076,12 +1064,12 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="9"/>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
+      <c r="A15" s="8"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="9"/>
+      <c r="E15" s="8"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1103,12 +1091,12 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="9"/>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
+      <c r="A16" s="8"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="9"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -1130,12 +1118,12 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="9"/>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
+      <c r="A17" s="8"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="9"/>
+      <c r="E17" s="8"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -1157,12 +1145,12 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="9"/>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
+      <c r="A18" s="8"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="9"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1184,12 +1172,12 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="9"/>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
+      <c r="A19" s="8"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="9"/>
+      <c r="E19" s="8"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -1211,12 +1199,12 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="9"/>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
+      <c r="A20" s="8"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="9"/>
+      <c r="E20" s="8"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1238,12 +1226,12 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="9"/>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
+      <c r="A21" s="8"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="9"/>
+      <c r="E21" s="8"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -1265,12 +1253,12 @@
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="9"/>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18">
+      <c r="A22" s="8"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="9"/>
+      <c r="E22" s="8"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1292,12 +1280,12 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="9"/>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18">
+      <c r="A23" s="8"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="9"/>
+      <c r="E23" s="8"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -1319,12 +1307,12 @@
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="9"/>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18">
+      <c r="A24" s="8"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="9"/>
+      <c r="E24" s="8"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -1346,12 +1334,12 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="9"/>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18">
+      <c r="A25" s="8"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="9"/>
+      <c r="E25" s="8"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -1373,12 +1361,12 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="9"/>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
+      <c r="A26" s="8"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="9"/>
+      <c r="E26" s="8"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -1400,12 +1388,12 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="9"/>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
+      <c r="A27" s="8"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="9"/>
+      <c r="E27" s="8"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -1427,12 +1415,12 @@
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="9"/>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
+      <c r="A28" s="8"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="9"/>
+      <c r="E28" s="8"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -1454,12 +1442,12 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="9"/>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
+      <c r="A29" s="8"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="9"/>
+      <c r="E29" s="8"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -1481,12 +1469,12 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="9"/>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
+      <c r="A30" s="8"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="9"/>
+      <c r="E30" s="8"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -1508,12 +1496,12 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="9"/>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18">
+      <c r="A31" s="8"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="9"/>
+      <c r="E31" s="8"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -1535,12 +1523,12 @@
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
-      <c r="A32" s="9"/>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18">
+      <c r="A32" s="8"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="9"/>
+      <c r="E32" s="8"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -1562,12 +1550,12 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
-      <c r="A33" s="9"/>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18">
+      <c r="A33" s="8"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="9"/>
+      <c r="E33" s="8"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -1590,11 +1578,11 @@
       <c r="Y33" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
-      <c r="A34" s="9"/>
+      <c r="A34" s="8"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="9"/>
+      <c r="E34" s="8"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -1617,11 +1605,11 @@
       <c r="Y34" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
-      <c r="A35" s="9"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="9"/>
+      <c r="E35" s="8"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -1644,11 +1632,11 @@
       <c r="Y35" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
-      <c r="A36" s="9"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="9"/>
+      <c r="E36" s="8"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -1671,11 +1659,11 @@
       <c r="Y36" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
-      <c r="A37" s="9"/>
+      <c r="A37" s="8"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="9"/>
+      <c r="E37" s="8"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -1698,11 +1686,11 @@
       <c r="Y37" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
-      <c r="A38" s="9"/>
+      <c r="A38" s="8"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="9"/>
+      <c r="E38" s="8"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -1725,11 +1713,11 @@
       <c r="Y38" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
-      <c r="A39" s="9"/>
+      <c r="A39" s="8"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="9"/>
+      <c r="E39" s="8"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -1752,11 +1740,11 @@
       <c r="Y39" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
-      <c r="A40" s="9"/>
+      <c r="A40" s="8"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="9"/>
+      <c r="E40" s="8"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -1779,11 +1767,11 @@
       <c r="Y40" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
-      <c r="A41" s="9"/>
+      <c r="A41" s="8"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
-      <c r="E41" s="9"/>
+      <c r="E41" s="8"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -1806,11 +1794,11 @@
       <c r="Y41" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
-      <c r="A42" s="9"/>
+      <c r="A42" s="8"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="9"/>
+      <c r="E42" s="8"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -1833,11 +1821,11 @@
       <c r="Y42" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
-      <c r="A43" s="9"/>
+      <c r="A43" s="8"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="9"/>
+      <c r="E43" s="8"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -1860,11 +1848,11 @@
       <c r="Y43" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
-      <c r="A44" s="9"/>
+      <c r="A44" s="8"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
-      <c r="E44" s="9"/>
+      <c r="E44" s="8"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -1887,11 +1875,11 @@
       <c r="Y44" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
-      <c r="A45" s="9"/>
+      <c r="A45" s="8"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
-      <c r="E45" s="9"/>
+      <c r="E45" s="8"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -1914,11 +1902,11 @@
       <c r="Y45" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
-      <c r="A46" s="9"/>
+      <c r="A46" s="8"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="9"/>
+      <c r="E46" s="8"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -1941,11 +1929,11 @@
       <c r="Y46" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
-      <c r="A47" s="9"/>
+      <c r="A47" s="8"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
-      <c r="E47" s="9"/>
+      <c r="E47" s="8"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -1968,11 +1956,11 @@
       <c r="Y47" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
-      <c r="A48" s="9"/>
+      <c r="A48" s="8"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
-      <c r="E48" s="9"/>
+      <c r="E48" s="8"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -1995,11 +1983,11 @@
       <c r="Y48" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
-      <c r="A49" s="9"/>
+      <c r="A49" s="8"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="9"/>
+      <c r="E49" s="8"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -2022,11 +2010,11 @@
       <c r="Y49" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
-      <c r="A50" s="9"/>
+      <c r="A50" s="8"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="9"/>
+      <c r="E50" s="8"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -2049,11 +2037,11 @@
       <c r="Y50" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
-      <c r="A51" s="9"/>
+      <c r="A51" s="8"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="9"/>
+      <c r="E51" s="8"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -2076,11 +2064,11 @@
       <c r="Y51" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
-      <c r="A52" s="9"/>
+      <c r="A52" s="8"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="9"/>
+      <c r="E52" s="8"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -2103,11 +2091,11 @@
       <c r="Y52" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
-      <c r="A53" s="9"/>
+      <c r="A53" s="8"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="9"/>
+      <c r="E53" s="8"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -2130,11 +2118,11 @@
       <c r="Y53" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
-      <c r="A54" s="9"/>
+      <c r="A54" s="8"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="9"/>
+      <c r="E54" s="8"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -2157,11 +2145,11 @@
       <c r="Y54" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
-      <c r="A55" s="9"/>
+      <c r="A55" s="8"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="9"/>
+      <c r="E55" s="8"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
@@ -2184,11 +2172,11 @@
       <c r="Y55" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
-      <c r="A56" s="9"/>
+      <c r="A56" s="8"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
-      <c r="E56" s="9"/>
+      <c r="E56" s="8"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
@@ -2211,11 +2199,11 @@
       <c r="Y56" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
-      <c r="A57" s="9"/>
+      <c r="A57" s="8"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="9"/>
+      <c r="E57" s="8"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -2238,11 +2226,11 @@
       <c r="Y57" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
-      <c r="A58" s="9"/>
+      <c r="A58" s="8"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
-      <c r="E58" s="9"/>
+      <c r="E58" s="8"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -2265,11 +2253,11 @@
       <c r="Y58" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
-      <c r="A59" s="9"/>
+      <c r="A59" s="8"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
-      <c r="E59" s="9"/>
+      <c r="E59" s="8"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -2292,11 +2280,11 @@
       <c r="Y59" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
-      <c r="A60" s="9"/>
+      <c r="A60" s="8"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
-      <c r="E60" s="9"/>
+      <c r="E60" s="8"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -2319,11 +2307,11 @@
       <c r="Y60" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
-      <c r="A61" s="9"/>
+      <c r="A61" s="8"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
-      <c r="E61" s="9"/>
+      <c r="E61" s="8"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -2346,11 +2334,11 @@
       <c r="Y61" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
-      <c r="A62" s="9"/>
+      <c r="A62" s="8"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
-      <c r="E62" s="9"/>
+      <c r="E62" s="8"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -2373,11 +2361,11 @@
       <c r="Y62" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
-      <c r="A63" s="9"/>
+      <c r="A63" s="8"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
-      <c r="E63" s="9"/>
+      <c r="E63" s="8"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -2400,11 +2388,11 @@
       <c r="Y63" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
-      <c r="A64" s="9"/>
+      <c r="A64" s="8"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
-      <c r="E64" s="9"/>
+      <c r="E64" s="8"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
@@ -2427,11 +2415,11 @@
       <c r="Y64" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
-      <c r="A65" s="9"/>
+      <c r="A65" s="8"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
-      <c r="E65" s="9"/>
+      <c r="E65" s="8"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
@@ -2454,11 +2442,11 @@
       <c r="Y65" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
-      <c r="A66" s="9"/>
+      <c r="A66" s="8"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
-      <c r="E66" s="9"/>
+      <c r="E66" s="8"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -2481,11 +2469,11 @@
       <c r="Y66" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
-      <c r="A67" s="9"/>
+      <c r="A67" s="8"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
-      <c r="E67" s="9"/>
+      <c r="E67" s="8"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
@@ -2508,11 +2496,11 @@
       <c r="Y67" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
-      <c r="A68" s="9"/>
+      <c r="A68" s="8"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
-      <c r="E68" s="9"/>
+      <c r="E68" s="8"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
@@ -2535,11 +2523,11 @@
       <c r="Y68" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
-      <c r="A69" s="9"/>
+      <c r="A69" s="8"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
-      <c r="E69" s="9"/>
+      <c r="E69" s="8"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
@@ -2562,11 +2550,11 @@
       <c r="Y69" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
-      <c r="A70" s="9"/>
+      <c r="A70" s="8"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
-      <c r="E70" s="9"/>
+      <c r="E70" s="8"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
@@ -2589,11 +2577,11 @@
       <c r="Y70" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
-      <c r="A71" s="9"/>
+      <c r="A71" s="8"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
-      <c r="E71" s="9"/>
+      <c r="E71" s="8"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
@@ -2616,11 +2604,11 @@
       <c r="Y71" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
-      <c r="A72" s="9"/>
+      <c r="A72" s="8"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
-      <c r="E72" s="9"/>
+      <c r="E72" s="8"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
@@ -2643,11 +2631,11 @@
       <c r="Y72" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
-      <c r="A73" s="9"/>
+      <c r="A73" s="8"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
-      <c r="E73" s="9"/>
+      <c r="E73" s="8"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
@@ -2670,11 +2658,11 @@
       <c r="Y73" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
-      <c r="A74" s="9"/>
+      <c r="A74" s="8"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
-      <c r="E74" s="9"/>
+      <c r="E74" s="8"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
@@ -2697,11 +2685,11 @@
       <c r="Y74" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
-      <c r="A75" s="9"/>
+      <c r="A75" s="8"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
-      <c r="E75" s="9"/>
+      <c r="E75" s="8"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
@@ -2724,11 +2712,11 @@
       <c r="Y75" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
-      <c r="A76" s="9"/>
+      <c r="A76" s="8"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
-      <c r="E76" s="9"/>
+      <c r="E76" s="8"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
@@ -2751,11 +2739,11 @@
       <c r="Y76" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
-      <c r="A77" s="9"/>
+      <c r="A77" s="8"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
-      <c r="E77" s="9"/>
+      <c r="E77" s="8"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
@@ -2778,11 +2766,11 @@
       <c r="Y77" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
-      <c r="A78" s="9"/>
+      <c r="A78" s="8"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
-      <c r="E78" s="9"/>
+      <c r="E78" s="8"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
@@ -2805,11 +2793,11 @@
       <c r="Y78" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
-      <c r="A79" s="9"/>
+      <c r="A79" s="8"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
-      <c r="E79" s="9"/>
+      <c r="E79" s="8"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
@@ -2832,11 +2820,11 @@
       <c r="Y79" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
-      <c r="A80" s="9"/>
+      <c r="A80" s="8"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
-      <c r="E80" s="9"/>
+      <c r="E80" s="8"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
@@ -2859,11 +2847,11 @@
       <c r="Y80" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
-      <c r="A81" s="9"/>
+      <c r="A81" s="8"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
-      <c r="E81" s="9"/>
+      <c r="E81" s="8"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
@@ -2886,11 +2874,11 @@
       <c r="Y81" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
-      <c r="A82" s="9"/>
+      <c r="A82" s="8"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
-      <c r="E82" s="9"/>
+      <c r="E82" s="8"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
@@ -2913,11 +2901,11 @@
       <c r="Y82" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
-      <c r="A83" s="9"/>
+      <c r="A83" s="8"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
-      <c r="E83" s="9"/>
+      <c r="E83" s="8"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
@@ -2940,11 +2928,11 @@
       <c r="Y83" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
-      <c r="A84" s="9"/>
+      <c r="A84" s="8"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
-      <c r="E84" s="9"/>
+      <c r="E84" s="8"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
@@ -2967,11 +2955,11 @@
       <c r="Y84" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
-      <c r="A85" s="9"/>
+      <c r="A85" s="8"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
-      <c r="E85" s="9"/>
+      <c r="E85" s="8"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
@@ -2994,11 +2982,11 @@
       <c r="Y85" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
-      <c r="A86" s="9"/>
+      <c r="A86" s="8"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
-      <c r="E86" s="9"/>
+      <c r="E86" s="8"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
@@ -3021,11 +3009,11 @@
       <c r="Y86" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
-      <c r="A87" s="9"/>
+      <c r="A87" s="8"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
-      <c r="E87" s="9"/>
+      <c r="E87" s="8"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
@@ -3048,11 +3036,11 @@
       <c r="Y87" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
-      <c r="A88" s="9"/>
+      <c r="A88" s="8"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
-      <c r="E88" s="9"/>
+      <c r="E88" s="8"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
@@ -3075,11 +3063,11 @@
       <c r="Y88" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
-      <c r="A89" s="9"/>
+      <c r="A89" s="8"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
-      <c r="E89" s="9"/>
+      <c r="E89" s="8"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
@@ -3102,11 +3090,11 @@
       <c r="Y89" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
-      <c r="A90" s="9"/>
+      <c r="A90" s="8"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
-      <c r="E90" s="9"/>
+      <c r="E90" s="8"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
@@ -3129,11 +3117,11 @@
       <c r="Y90" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
-      <c r="A91" s="9"/>
+      <c r="A91" s="8"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
-      <c r="E91" s="9"/>
+      <c r="E91" s="8"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
@@ -3156,11 +3144,11 @@
       <c r="Y91" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
-      <c r="A92" s="9"/>
+      <c r="A92" s="8"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
-      <c r="E92" s="9"/>
+      <c r="E92" s="8"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
@@ -3183,11 +3171,11 @@
       <c r="Y92" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
-      <c r="A93" s="9"/>
+      <c r="A93" s="8"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
-      <c r="E93" s="9"/>
+      <c r="E93" s="8"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
@@ -3210,11 +3198,11 @@
       <c r="Y93" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
-      <c r="A94" s="9"/>
+      <c r="A94" s="8"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
-      <c r="E94" s="9"/>
+      <c r="E94" s="8"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
@@ -3237,11 +3225,11 @@
       <c r="Y94" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
-      <c r="A95" s="9"/>
+      <c r="A95" s="8"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
-      <c r="E95" s="9"/>
+      <c r="E95" s="8"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
@@ -3264,11 +3252,11 @@
       <c r="Y95" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
-      <c r="A96" s="9"/>
+      <c r="A96" s="8"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
-      <c r="E96" s="9"/>
+      <c r="E96" s="8"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
@@ -3291,11 +3279,11 @@
       <c r="Y96" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
-      <c r="A97" s="9"/>
+      <c r="A97" s="8"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
-      <c r="E97" s="9"/>
+      <c r="E97" s="8"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
@@ -3318,11 +3306,11 @@
       <c r="Y97" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
-      <c r="A98" s="9"/>
+      <c r="A98" s="8"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
-      <c r="E98" s="9"/>
+      <c r="E98" s="8"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
@@ -3345,11 +3333,11 @@
       <c r="Y98" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
-      <c r="A99" s="9"/>
+      <c r="A99" s="8"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
-      <c r="E99" s="9"/>
+      <c r="E99" s="8"/>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
@@ -3372,11 +3360,11 @@
       <c r="Y99" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
-      <c r="A100" s="9"/>
+      <c r="A100" s="8"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
-      <c r="E100" s="9"/>
+      <c r="E100" s="8"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
@@ -3399,11 +3387,11 @@
       <c r="Y100" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
-      <c r="A101" s="9"/>
+      <c r="A101" s="8"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
-      <c r="E101" s="9"/>
+      <c r="E101" s="8"/>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
@@ -3426,11 +3414,11 @@
       <c r="Y101" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
-      <c r="A102" s="9"/>
+      <c r="A102" s="8"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
-      <c r="E102" s="9"/>
+      <c r="E102" s="8"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
@@ -3453,11 +3441,11 @@
       <c r="Y102" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
-      <c r="A103" s="9"/>
+      <c r="A103" s="8"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
-      <c r="E103" s="9"/>
+      <c r="E103" s="8"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
@@ -3480,11 +3468,11 @@
       <c r="Y103" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
-      <c r="A104" s="9"/>
+      <c r="A104" s="8"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
-      <c r="E104" s="9"/>
+      <c r="E104" s="8"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
@@ -3507,11 +3495,11 @@
       <c r="Y104" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
-      <c r="A105" s="9"/>
+      <c r="A105" s="8"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
-      <c r="E105" s="9"/>
+      <c r="E105" s="8"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -3534,11 +3522,11 @@
       <c r="Y105" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
-      <c r="A106" s="9"/>
+      <c r="A106" s="8"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
-      <c r="E106" s="9"/>
+      <c r="E106" s="8"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
@@ -3561,11 +3549,11 @@
       <c r="Y106" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
-      <c r="A107" s="9"/>
+      <c r="A107" s="8"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
-      <c r="E107" s="9"/>
+      <c r="E107" s="8"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
@@ -3588,11 +3576,11 @@
       <c r="Y107" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
-      <c r="A108" s="9"/>
+      <c r="A108" s="8"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
-      <c r="E108" s="9"/>
+      <c r="E108" s="8"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
@@ -3615,11 +3603,11 @@
       <c r="Y108" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
-      <c r="A109" s="9"/>
+      <c r="A109" s="8"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
-      <c r="E109" s="9"/>
+      <c r="E109" s="8"/>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
@@ -3642,11 +3630,11 @@
       <c r="Y109" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
-      <c r="A110" s="9"/>
+      <c r="A110" s="8"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
-      <c r="E110" s="9"/>
+      <c r="E110" s="8"/>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
@@ -3669,11 +3657,11 @@
       <c r="Y110" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
-      <c r="A111" s="9"/>
+      <c r="A111" s="8"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
-      <c r="E111" s="9"/>
+      <c r="E111" s="8"/>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
@@ -3696,11 +3684,11 @@
       <c r="Y111" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
-      <c r="A112" s="9"/>
+      <c r="A112" s="8"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
-      <c r="E112" s="9"/>
+      <c r="E112" s="8"/>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
@@ -3723,11 +3711,11 @@
       <c r="Y112" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
-      <c r="A113" s="9"/>
+      <c r="A113" s="8"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
-      <c r="E113" s="9"/>
+      <c r="E113" s="8"/>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
@@ -3750,11 +3738,11 @@
       <c r="Y113" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
-      <c r="A114" s="9"/>
+      <c r="A114" s="8"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
-      <c r="E114" s="9"/>
+      <c r="E114" s="8"/>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
@@ -3777,11 +3765,11 @@
       <c r="Y114" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
-      <c r="A115" s="9"/>
+      <c r="A115" s="8"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
-      <c r="E115" s="9"/>
+      <c r="E115" s="8"/>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
@@ -3804,11 +3792,11 @@
       <c r="Y115" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
-      <c r="A116" s="9"/>
+      <c r="A116" s="8"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
-      <c r="E116" s="9"/>
+      <c r="E116" s="8"/>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
@@ -3831,11 +3819,11 @@
       <c r="Y116" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
-      <c r="A117" s="9"/>
+      <c r="A117" s="8"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
-      <c r="E117" s="9"/>
+      <c r="E117" s="8"/>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
@@ -3858,11 +3846,11 @@
       <c r="Y117" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
-      <c r="A118" s="9"/>
+      <c r="A118" s="8"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
-      <c r="E118" s="9"/>
+      <c r="E118" s="8"/>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
@@ -3885,11 +3873,11 @@
       <c r="Y118" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
-      <c r="A119" s="9"/>
+      <c r="A119" s="8"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
-      <c r="E119" s="9"/>
+      <c r="E119" s="8"/>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
@@ -3912,11 +3900,11 @@
       <c r="Y119" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
-      <c r="A120" s="9"/>
+      <c r="A120" s="8"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
-      <c r="E120" s="9"/>
+      <c r="E120" s="8"/>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
@@ -3939,11 +3927,11 @@
       <c r="Y120" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
-      <c r="A121" s="9"/>
+      <c r="A121" s="8"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
-      <c r="E121" s="9"/>
+      <c r="E121" s="8"/>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
@@ -3966,11 +3954,11 @@
       <c r="Y121" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
-      <c r="A122" s="9"/>
+      <c r="A122" s="8"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
-      <c r="E122" s="9"/>
+      <c r="E122" s="8"/>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
@@ -3993,11 +3981,11 @@
       <c r="Y122" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
-      <c r="A123" s="9"/>
+      <c r="A123" s="8"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
-      <c r="E123" s="9"/>
+      <c r="E123" s="8"/>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
@@ -4020,11 +4008,11 @@
       <c r="Y123" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
-      <c r="A124" s="9"/>
+      <c r="A124" s="8"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
-      <c r="E124" s="9"/>
+      <c r="E124" s="8"/>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
@@ -4047,11 +4035,11 @@
       <c r="Y124" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
-      <c r="A125" s="9"/>
+      <c r="A125" s="8"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
-      <c r="E125" s="9"/>
+      <c r="E125" s="8"/>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
@@ -4074,11 +4062,11 @@
       <c r="Y125" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
-      <c r="A126" s="9"/>
+      <c r="A126" s="8"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
-      <c r="E126" s="9"/>
+      <c r="E126" s="8"/>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
@@ -4101,11 +4089,11 @@
       <c r="Y126" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
-      <c r="A127" s="9"/>
+      <c r="A127" s="8"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
-      <c r="E127" s="9"/>
+      <c r="E127" s="8"/>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
@@ -4128,11 +4116,11 @@
       <c r="Y127" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
-      <c r="A128" s="9"/>
+      <c r="A128" s="8"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
-      <c r="E128" s="9"/>
+      <c r="E128" s="8"/>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
@@ -4155,11 +4143,11 @@
       <c r="Y128" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
-      <c r="A129" s="9"/>
+      <c r="A129" s="8"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
-      <c r="E129" s="9"/>
+      <c r="E129" s="8"/>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
@@ -4182,11 +4170,11 @@
       <c r="Y129" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
-      <c r="A130" s="9"/>
+      <c r="A130" s="8"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
-      <c r="E130" s="9"/>
+      <c r="E130" s="8"/>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
@@ -4209,11 +4197,11 @@
       <c r="Y130" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25">
-      <c r="A131" s="9"/>
+      <c r="A131" s="8"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
-      <c r="E131" s="9"/>
+      <c r="E131" s="8"/>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
@@ -4236,11 +4224,11 @@
       <c r="Y131" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25">
-      <c r="A132" s="9"/>
+      <c r="A132" s="8"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
-      <c r="E132" s="9"/>
+      <c r="E132" s="8"/>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
@@ -4263,11 +4251,11 @@
       <c r="Y132" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25">
-      <c r="A133" s="9"/>
+      <c r="A133" s="8"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
-      <c r="E133" s="9"/>
+      <c r="E133" s="8"/>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
@@ -4290,11 +4278,11 @@
       <c r="Y133" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25">
-      <c r="A134" s="9"/>
+      <c r="A134" s="8"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
-      <c r="E134" s="9"/>
+      <c r="E134" s="8"/>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
@@ -4317,11 +4305,11 @@
       <c r="Y134" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25">
-      <c r="A135" s="9"/>
+      <c r="A135" s="8"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
-      <c r="E135" s="9"/>
+      <c r="E135" s="8"/>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
@@ -4344,11 +4332,11 @@
       <c r="Y135" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25">
-      <c r="A136" s="9"/>
+      <c r="A136" s="8"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
-      <c r="E136" s="9"/>
+      <c r="E136" s="8"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
@@ -4371,11 +4359,11 @@
       <c r="Y136" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25">
-      <c r="A137" s="9"/>
+      <c r="A137" s="8"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
-      <c r="E137" s="9"/>
+      <c r="E137" s="8"/>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
@@ -4398,11 +4386,11 @@
       <c r="Y137" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="17.25">
-      <c r="A138" s="9"/>
+      <c r="A138" s="8"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
-      <c r="E138" s="9"/>
+      <c r="E138" s="8"/>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
@@ -4425,11 +4413,11 @@
       <c r="Y138" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25">
-      <c r="A139" s="9"/>
+      <c r="A139" s="8"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
-      <c r="E139" s="9"/>
+      <c r="E139" s="8"/>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
@@ -4452,11 +4440,11 @@
       <c r="Y139" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25">
-      <c r="A140" s="9"/>
+      <c r="A140" s="8"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
-      <c r="E140" s="9"/>
+      <c r="E140" s="8"/>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
       <c r="H140" s="3"/>
@@ -4479,11 +4467,11 @@
       <c r="Y140" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="17.25">
-      <c r="A141" s="9"/>
+      <c r="A141" s="8"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
-      <c r="E141" s="9"/>
+      <c r="E141" s="8"/>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
@@ -4506,11 +4494,11 @@
       <c r="Y141" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="17.25">
-      <c r="A142" s="9"/>
+      <c r="A142" s="8"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
-      <c r="E142" s="9"/>
+      <c r="E142" s="8"/>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
@@ -4533,11 +4521,11 @@
       <c r="Y142" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="17.25">
-      <c r="A143" s="9"/>
+      <c r="A143" s="8"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
-      <c r="E143" s="9"/>
+      <c r="E143" s="8"/>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
@@ -4560,11 +4548,11 @@
       <c r="Y143" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="17.25">
-      <c r="A144" s="9"/>
+      <c r="A144" s="8"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
-      <c r="E144" s="9"/>
+      <c r="E144" s="8"/>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
@@ -4587,11 +4575,11 @@
       <c r="Y144" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="17.25">
-      <c r="A145" s="9"/>
+      <c r="A145" s="8"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
-      <c r="E145" s="9"/>
+      <c r="E145" s="8"/>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
@@ -4614,11 +4602,11 @@
       <c r="Y145" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="17.25">
-      <c r="A146" s="9"/>
+      <c r="A146" s="8"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
-      <c r="E146" s="9"/>
+      <c r="E146" s="8"/>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
@@ -4641,11 +4629,11 @@
       <c r="Y146" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="17.25">
-      <c r="A147" s="9"/>
+      <c r="A147" s="8"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
-      <c r="E147" s="9"/>
+      <c r="E147" s="8"/>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
@@ -4668,11 +4656,11 @@
       <c r="Y147" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="17.25">
-      <c r="A148" s="9"/>
+      <c r="A148" s="8"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
-      <c r="E148" s="9"/>
+      <c r="E148" s="8"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
@@ -4695,11 +4683,11 @@
       <c r="Y148" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="17.25">
-      <c r="A149" s="9"/>
+      <c r="A149" s="8"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
-      <c r="E149" s="9"/>
+      <c r="E149" s="8"/>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
@@ -4722,11 +4710,11 @@
       <c r="Y149" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="17.25">
-      <c r="A150" s="9"/>
+      <c r="A150" s="8"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
-      <c r="E150" s="9"/>
+      <c r="E150" s="8"/>
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
       <c r="H150" s="3"/>
@@ -4749,11 +4737,11 @@
       <c r="Y150" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="17.25">
-      <c r="A151" s="9"/>
+      <c r="A151" s="8"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
-      <c r="E151" s="9"/>
+      <c r="E151" s="8"/>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
       <c r="H151" s="3"/>
@@ -4776,11 +4764,11 @@
       <c r="Y151" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="17.25">
-      <c r="A152" s="9"/>
+      <c r="A152" s="8"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
-      <c r="E152" s="9"/>
+      <c r="E152" s="8"/>
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
       <c r="H152" s="3"/>
@@ -4803,11 +4791,11 @@
       <c r="Y152" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="17.25">
-      <c r="A153" s="9"/>
+      <c r="A153" s="8"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
-      <c r="E153" s="9"/>
+      <c r="E153" s="8"/>
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
@@ -4830,11 +4818,11 @@
       <c r="Y153" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="17.25">
-      <c r="A154" s="9"/>
+      <c r="A154" s="8"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
-      <c r="E154" s="9"/>
+      <c r="E154" s="8"/>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
@@ -4857,11 +4845,11 @@
       <c r="Y154" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="17.25">
-      <c r="A155" s="9"/>
+      <c r="A155" s="8"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
-      <c r="E155" s="9"/>
+      <c r="E155" s="8"/>
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
@@ -4884,11 +4872,11 @@
       <c r="Y155" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="17.25">
-      <c r="A156" s="9"/>
+      <c r="A156" s="8"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
-      <c r="E156" s="9"/>
+      <c r="E156" s="8"/>
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
       <c r="H156" s="3"/>
@@ -4911,11 +4899,11 @@
       <c r="Y156" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="17.25">
-      <c r="A157" s="9"/>
+      <c r="A157" s="8"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
-      <c r="E157" s="9"/>
+      <c r="E157" s="8"/>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
@@ -4938,11 +4926,11 @@
       <c r="Y157" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="17.25">
-      <c r="A158" s="9"/>
+      <c r="A158" s="8"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
-      <c r="E158" s="9"/>
+      <c r="E158" s="8"/>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
@@ -4965,11 +4953,11 @@
       <c r="Y158" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="17.25">
-      <c r="A159" s="9"/>
+      <c r="A159" s="8"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
-      <c r="E159" s="9"/>
+      <c r="E159" s="8"/>
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
@@ -4992,11 +4980,11 @@
       <c r="Y159" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="17.25">
-      <c r="A160" s="9"/>
+      <c r="A160" s="8"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
-      <c r="E160" s="9"/>
+      <c r="E160" s="8"/>
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
@@ -5019,11 +5007,11 @@
       <c r="Y160" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="17.25">
-      <c r="A161" s="9"/>
+      <c r="A161" s="8"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
-      <c r="E161" s="9"/>
+      <c r="E161" s="8"/>
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
@@ -5046,11 +5034,11 @@
       <c r="Y161" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="17.25">
-      <c r="A162" s="9"/>
+      <c r="A162" s="8"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
-      <c r="E162" s="9"/>
+      <c r="E162" s="8"/>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
@@ -5073,11 +5061,11 @@
       <c r="Y162" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="17.25">
-      <c r="A163" s="9"/>
+      <c r="A163" s="8"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
-      <c r="E163" s="9"/>
+      <c r="E163" s="8"/>
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
@@ -5100,11 +5088,11 @@
       <c r="Y163" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="17.25">
-      <c r="A164" s="9"/>
+      <c r="A164" s="8"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
-      <c r="E164" s="9"/>
+      <c r="E164" s="8"/>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
@@ -5127,11 +5115,11 @@
       <c r="Y164" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="17.25">
-      <c r="A165" s="9"/>
+      <c r="A165" s="8"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
-      <c r="E165" s="9"/>
+      <c r="E165" s="8"/>
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
@@ -5154,11 +5142,11 @@
       <c r="Y165" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="17.25">
-      <c r="A166" s="9"/>
+      <c r="A166" s="8"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
-      <c r="E166" s="9"/>
+      <c r="E166" s="8"/>
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
@@ -5181,11 +5169,11 @@
       <c r="Y166" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="17.25">
-      <c r="A167" s="9"/>
+      <c r="A167" s="8"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
-      <c r="E167" s="9"/>
+      <c r="E167" s="8"/>
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
@@ -5208,11 +5196,11 @@
       <c r="Y167" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="17.25">
-      <c r="A168" s="9"/>
+      <c r="A168" s="8"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
-      <c r="E168" s="9"/>
+      <c r="E168" s="8"/>
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
@@ -5235,11 +5223,11 @@
       <c r="Y168" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="17.25">
-      <c r="A169" s="9"/>
+      <c r="A169" s="8"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
-      <c r="E169" s="9"/>
+      <c r="E169" s="8"/>
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
@@ -5262,11 +5250,11 @@
       <c r="Y169" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="17.25">
-      <c r="A170" s="9"/>
+      <c r="A170" s="8"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
-      <c r="E170" s="9"/>
+      <c r="E170" s="8"/>
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
@@ -5289,11 +5277,11 @@
       <c r="Y170" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="17.25">
-      <c r="A171" s="9"/>
+      <c r="A171" s="8"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
-      <c r="E171" s="9"/>
+      <c r="E171" s="8"/>
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
@@ -5316,11 +5304,11 @@
       <c r="Y171" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="17.25">
-      <c r="A172" s="9"/>
+      <c r="A172" s="8"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
-      <c r="E172" s="9"/>
+      <c r="E172" s="8"/>
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
@@ -5343,11 +5331,11 @@
       <c r="Y172" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="17.25">
-      <c r="A173" s="9"/>
+      <c r="A173" s="8"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
-      <c r="E173" s="9"/>
+      <c r="E173" s="8"/>
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
@@ -5370,11 +5358,11 @@
       <c r="Y173" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="17.25">
-      <c r="A174" s="9"/>
+      <c r="A174" s="8"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
-      <c r="E174" s="9"/>
+      <c r="E174" s="8"/>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
@@ -5397,11 +5385,11 @@
       <c r="Y174" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="17.25">
-      <c r="A175" s="9"/>
+      <c r="A175" s="8"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
-      <c r="E175" s="9"/>
+      <c r="E175" s="8"/>
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
@@ -5424,11 +5412,11 @@
       <c r="Y175" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="17.25">
-      <c r="A176" s="9"/>
+      <c r="A176" s="8"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
-      <c r="E176" s="9"/>
+      <c r="E176" s="8"/>
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
@@ -5451,11 +5439,11 @@
       <c r="Y176" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="17.25">
-      <c r="A177" s="9"/>
+      <c r="A177" s="8"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
-      <c r="E177" s="9"/>
+      <c r="E177" s="8"/>
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
@@ -5478,11 +5466,11 @@
       <c r="Y177" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="17.25">
-      <c r="A178" s="9"/>
+      <c r="A178" s="8"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
-      <c r="E178" s="9"/>
+      <c r="E178" s="8"/>
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
@@ -5505,11 +5493,11 @@
       <c r="Y178" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="17.25">
-      <c r="A179" s="9"/>
+      <c r="A179" s="8"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
-      <c r="E179" s="9"/>
+      <c r="E179" s="8"/>
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
@@ -5532,11 +5520,11 @@
       <c r="Y179" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="17.25">
-      <c r="A180" s="9"/>
+      <c r="A180" s="8"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
-      <c r="E180" s="9"/>
+      <c r="E180" s="8"/>
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
@@ -5559,11 +5547,11 @@
       <c r="Y180" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="17.25">
-      <c r="A181" s="9"/>
+      <c r="A181" s="8"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
-      <c r="E181" s="9"/>
+      <c r="E181" s="8"/>
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
@@ -5586,11 +5574,11 @@
       <c r="Y181" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="17.25">
-      <c r="A182" s="9"/>
+      <c r="A182" s="8"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
-      <c r="E182" s="9"/>
+      <c r="E182" s="8"/>
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
@@ -5613,11 +5601,11 @@
       <c r="Y182" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="17.25">
-      <c r="A183" s="9"/>
+      <c r="A183" s="8"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
-      <c r="E183" s="9"/>
+      <c r="E183" s="8"/>
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
@@ -5640,11 +5628,11 @@
       <c r="Y183" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="17.25">
-      <c r="A184" s="9"/>
+      <c r="A184" s="8"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
-      <c r="E184" s="9"/>
+      <c r="E184" s="8"/>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
@@ -5667,11 +5655,11 @@
       <c r="Y184" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="17.25">
-      <c r="A185" s="9"/>
+      <c r="A185" s="8"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
-      <c r="E185" s="9"/>
+      <c r="E185" s="8"/>
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
@@ -5694,11 +5682,11 @@
       <c r="Y185" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="17.25">
-      <c r="A186" s="9"/>
+      <c r="A186" s="8"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
-      <c r="E186" s="9"/>
+      <c r="E186" s="8"/>
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
       <c r="H186" s="3"/>
@@ -5721,11 +5709,11 @@
       <c r="Y186" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="17.25">
-      <c r="A187" s="9"/>
+      <c r="A187" s="8"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
-      <c r="E187" s="9"/>
+      <c r="E187" s="8"/>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
@@ -5748,11 +5736,11 @@
       <c r="Y187" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="17.25">
-      <c r="A188" s="9"/>
+      <c r="A188" s="8"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
-      <c r="E188" s="9"/>
+      <c r="E188" s="8"/>
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
@@ -5775,11 +5763,11 @@
       <c r="Y188" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="17.25">
-      <c r="A189" s="9"/>
+      <c r="A189" s="8"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
-      <c r="E189" s="9"/>
+      <c r="E189" s="8"/>
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
@@ -5802,11 +5790,11 @@
       <c r="Y189" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="17.25">
-      <c r="A190" s="9"/>
+      <c r="A190" s="8"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
-      <c r="E190" s="9"/>
+      <c r="E190" s="8"/>
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
@@ -5829,11 +5817,11 @@
       <c r="Y190" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="17.25">
-      <c r="A191" s="9"/>
+      <c r="A191" s="8"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
-      <c r="E191" s="9"/>
+      <c r="E191" s="8"/>
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
@@ -5856,11 +5844,11 @@
       <c r="Y191" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="17.25">
-      <c r="A192" s="9"/>
+      <c r="A192" s="8"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
-      <c r="E192" s="9"/>
+      <c r="E192" s="8"/>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
@@ -5883,11 +5871,11 @@
       <c r="Y192" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="17.25">
-      <c r="A193" s="9"/>
+      <c r="A193" s="8"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
-      <c r="E193" s="9"/>
+      <c r="E193" s="8"/>
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
       <c r="H193" s="3"/>
@@ -5910,11 +5898,11 @@
       <c r="Y193" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="17.25">
-      <c r="A194" s="9"/>
+      <c r="A194" s="8"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
-      <c r="E194" s="9"/>
+      <c r="E194" s="8"/>
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
       <c r="H194" s="3"/>
@@ -5937,11 +5925,11 @@
       <c r="Y194" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="17.25">
-      <c r="A195" s="9"/>
+      <c r="A195" s="8"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
-      <c r="E195" s="9"/>
+      <c r="E195" s="8"/>
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
@@ -5964,11 +5952,11 @@
       <c r="Y195" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="17.25">
-      <c r="A196" s="9"/>
+      <c r="A196" s="8"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
-      <c r="E196" s="9"/>
+      <c r="E196" s="8"/>
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
@@ -5991,11 +5979,11 @@
       <c r="Y196" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="17.25">
-      <c r="A197" s="9"/>
+      <c r="A197" s="8"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
-      <c r="E197" s="9"/>
+      <c r="E197" s="8"/>
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
       <c r="H197" s="3"/>
@@ -6018,11 +6006,11 @@
       <c r="Y197" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="17.25">
-      <c r="A198" s="9"/>
+      <c r="A198" s="8"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
-      <c r="E198" s="9"/>
+      <c r="E198" s="8"/>
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
       <c r="H198" s="3"/>
@@ -6045,11 +6033,11 @@
       <c r="Y198" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="17.25">
-      <c r="A199" s="9"/>
+      <c r="A199" s="8"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
-      <c r="E199" s="9"/>
+      <c r="E199" s="8"/>
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
@@ -6072,11 +6060,11 @@
       <c r="Y199" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="17.25">
-      <c r="A200" s="9"/>
+      <c r="A200" s="8"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
-      <c r="E200" s="9"/>
+      <c r="E200" s="8"/>
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
       <c r="H200" s="3"/>
@@ -6114,36 +6102,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="8.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="6" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="8.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="5" width="14.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="3"/>
@@ -6173,7 +6161,7 @@
       <c r="Z1" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="3"/>
@@ -6203,7 +6191,7 @@
       <c r="Z2" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="3"/>
@@ -6233,7 +6221,7 @@
       <c r="Z3" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="3"/>
@@ -6263,7 +6251,7 @@
       <c r="Z4" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="3"/>
@@ -11768,37 +11756,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="7.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="6" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="7.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="5" width="14.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -12161,7 +12149,7 @@
       <c r="AA11" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="9"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -12190,7 +12178,7 @@
       <c r="AA12" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="9"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -12219,7 +12207,7 @@
       <c r="AA13" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="9"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -12248,7 +12236,7 @@
       <c r="AA14" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="9"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -12277,7 +12265,7 @@
       <c r="AA15" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="9"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -12306,7 +12294,7 @@
       <c r="AA16" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="9"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -12335,7 +12323,7 @@
       <c r="AA17" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="9"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -12364,7 +12352,7 @@
       <c r="AA18" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="9"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -12393,7 +12381,7 @@
       <c r="AA19" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="9"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -12422,7 +12410,7 @@
       <c r="AA20" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="9"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -12451,7 +12439,7 @@
       <c r="AA21" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="9"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -12480,7 +12468,7 @@
       <c r="AA22" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="9"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -12509,7 +12497,7 @@
       <c r="AA23" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="9"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -12538,7 +12526,7 @@
       <c r="AA24" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="9"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -12567,7 +12555,7 @@
       <c r="AA25" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="9"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -12596,7 +12584,7 @@
       <c r="AA26" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="9"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -12625,7 +12613,7 @@
       <c r="AA27" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="9"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -12654,7 +12642,7 @@
       <c r="AA28" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="9"/>
+      <c r="A29" s="8"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -12683,7 +12671,7 @@
       <c r="AA29" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="9"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -12712,7 +12700,7 @@
       <c r="AA30" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="9"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -12741,7 +12729,7 @@
       <c r="AA31" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
-      <c r="A32" s="9"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -12770,7 +12758,7 @@
       <c r="AA32" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
-      <c r="A33" s="9"/>
+      <c r="A33" s="8"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -12799,7 +12787,7 @@
       <c r="AA33" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
-      <c r="A34" s="9"/>
+      <c r="A34" s="8"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -12828,7 +12816,7 @@
       <c r="AA34" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
-      <c r="A35" s="9"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -12857,7 +12845,7 @@
       <c r="AA35" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
-      <c r="A36" s="9"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -12886,7 +12874,7 @@
       <c r="AA36" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
-      <c r="A37" s="9"/>
+      <c r="A37" s="8"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -12915,7 +12903,7 @@
       <c r="AA37" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
-      <c r="A38" s="9"/>
+      <c r="A38" s="8"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -12944,7 +12932,7 @@
       <c r="AA38" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
-      <c r="A39" s="9"/>
+      <c r="A39" s="8"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -12973,7 +12961,7 @@
       <c r="AA39" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
-      <c r="A40" s="9"/>
+      <c r="A40" s="8"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -13002,7 +12990,7 @@
       <c r="AA40" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
-      <c r="A41" s="9"/>
+      <c r="A41" s="8"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -13031,7 +13019,7 @@
       <c r="AA41" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
-      <c r="A42" s="9"/>
+      <c r="A42" s="8"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -13060,7 +13048,7 @@
       <c r="AA42" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
-      <c r="A43" s="9"/>
+      <c r="A43" s="8"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -13089,7 +13077,7 @@
       <c r="AA43" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
-      <c r="A44" s="9"/>
+      <c r="A44" s="8"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -13118,7 +13106,7 @@
       <c r="AA44" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
-      <c r="A45" s="9"/>
+      <c r="A45" s="8"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -13147,7 +13135,7 @@
       <c r="AA45" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
-      <c r="A46" s="9"/>
+      <c r="A46" s="8"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -13176,7 +13164,7 @@
       <c r="AA46" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
-      <c r="A47" s="9"/>
+      <c r="A47" s="8"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -13205,7 +13193,7 @@
       <c r="AA47" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
-      <c r="A48" s="9"/>
+      <c r="A48" s="8"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -13234,7 +13222,7 @@
       <c r="AA48" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
-      <c r="A49" s="9"/>
+      <c r="A49" s="8"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -13263,7 +13251,7 @@
       <c r="AA49" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
-      <c r="A50" s="9"/>
+      <c r="A50" s="8"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -13292,7 +13280,7 @@
       <c r="AA50" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
-      <c r="A51" s="9"/>
+      <c r="A51" s="8"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -13321,7 +13309,7 @@
       <c r="AA51" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
-      <c r="A52" s="9"/>
+      <c r="A52" s="8"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -13350,7 +13338,7 @@
       <c r="AA52" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
-      <c r="A53" s="9"/>
+      <c r="A53" s="8"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -13379,7 +13367,7 @@
       <c r="AA53" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
-      <c r="A54" s="9"/>
+      <c r="A54" s="8"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -13408,7 +13396,7 @@
       <c r="AA54" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
-      <c r="A55" s="9"/>
+      <c r="A55" s="8"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -13437,7 +13425,7 @@
       <c r="AA55" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
-      <c r="A56" s="9"/>
+      <c r="A56" s="8"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -13466,7 +13454,7 @@
       <c r="AA56" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
-      <c r="A57" s="9"/>
+      <c r="A57" s="8"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -13495,7 +13483,7 @@
       <c r="AA57" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
-      <c r="A58" s="9"/>
+      <c r="A58" s="8"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -13524,7 +13512,7 @@
       <c r="AA58" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
-      <c r="A59" s="9"/>
+      <c r="A59" s="8"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -13553,7 +13541,7 @@
       <c r="AA59" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
-      <c r="A60" s="9"/>
+      <c r="A60" s="8"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -13582,7 +13570,7 @@
       <c r="AA60" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
-      <c r="A61" s="9"/>
+      <c r="A61" s="8"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -13611,7 +13599,7 @@
       <c r="AA61" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
-      <c r="A62" s="9"/>
+      <c r="A62" s="8"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -13640,7 +13628,7 @@
       <c r="AA62" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
-      <c r="A63" s="9"/>
+      <c r="A63" s="8"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -13669,7 +13657,7 @@
       <c r="AA63" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
-      <c r="A64" s="9"/>
+      <c r="A64" s="8"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -13698,7 +13686,7 @@
       <c r="AA64" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
-      <c r="A65" s="9"/>
+      <c r="A65" s="8"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -13727,7 +13715,7 @@
       <c r="AA65" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
-      <c r="A66" s="9"/>
+      <c r="A66" s="8"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -13756,7 +13744,7 @@
       <c r="AA66" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
-      <c r="A67" s="9"/>
+      <c r="A67" s="8"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -13785,7 +13773,7 @@
       <c r="AA67" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
-      <c r="A68" s="9"/>
+      <c r="A68" s="8"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -13814,7 +13802,7 @@
       <c r="AA68" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
-      <c r="A69" s="9"/>
+      <c r="A69" s="8"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -13843,7 +13831,7 @@
       <c r="AA69" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
-      <c r="A70" s="9"/>
+      <c r="A70" s="8"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -13872,7 +13860,7 @@
       <c r="AA70" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
-      <c r="A71" s="9"/>
+      <c r="A71" s="8"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -13901,7 +13889,7 @@
       <c r="AA71" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
-      <c r="A72" s="9"/>
+      <c r="A72" s="8"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -13930,7 +13918,7 @@
       <c r="AA72" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
-      <c r="A73" s="9"/>
+      <c r="A73" s="8"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -13959,7 +13947,7 @@
       <c r="AA73" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
-      <c r="A74" s="9"/>
+      <c r="A74" s="8"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -13988,7 +13976,7 @@
       <c r="AA74" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
-      <c r="A75" s="9"/>
+      <c r="A75" s="8"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -14017,7 +14005,7 @@
       <c r="AA75" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
-      <c r="A76" s="9"/>
+      <c r="A76" s="8"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -14046,7 +14034,7 @@
       <c r="AA76" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
-      <c r="A77" s="9"/>
+      <c r="A77" s="8"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -14075,7 +14063,7 @@
       <c r="AA77" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
-      <c r="A78" s="9"/>
+      <c r="A78" s="8"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -14104,7 +14092,7 @@
       <c r="AA78" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
-      <c r="A79" s="9"/>
+      <c r="A79" s="8"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -14133,7 +14121,7 @@
       <c r="AA79" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
-      <c r="A80" s="9"/>
+      <c r="A80" s="8"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -14162,7 +14150,7 @@
       <c r="AA80" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
-      <c r="A81" s="9"/>
+      <c r="A81" s="8"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -14191,7 +14179,7 @@
       <c r="AA81" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
-      <c r="A82" s="9"/>
+      <c r="A82" s="8"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -14220,7 +14208,7 @@
       <c r="AA82" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
-      <c r="A83" s="9"/>
+      <c r="A83" s="8"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -14249,7 +14237,7 @@
       <c r="AA83" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
-      <c r="A84" s="9"/>
+      <c r="A84" s="8"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -14278,7 +14266,7 @@
       <c r="AA84" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
-      <c r="A85" s="9"/>
+      <c r="A85" s="8"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -14307,7 +14295,7 @@
       <c r="AA85" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
-      <c r="A86" s="9"/>
+      <c r="A86" s="8"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -14336,7 +14324,7 @@
       <c r="AA86" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
-      <c r="A87" s="9"/>
+      <c r="A87" s="8"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -14365,7 +14353,7 @@
       <c r="AA87" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
-      <c r="A88" s="9"/>
+      <c r="A88" s="8"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -14394,7 +14382,7 @@
       <c r="AA88" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
-      <c r="A89" s="9"/>
+      <c r="A89" s="8"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -14423,7 +14411,7 @@
       <c r="AA89" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
-      <c r="A90" s="9"/>
+      <c r="A90" s="8"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -14452,7 +14440,7 @@
       <c r="AA90" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
-      <c r="A91" s="9"/>
+      <c r="A91" s="8"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -14481,7 +14469,7 @@
       <c r="AA91" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
-      <c r="A92" s="9"/>
+      <c r="A92" s="8"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -14510,7 +14498,7 @@
       <c r="AA92" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
-      <c r="A93" s="9"/>
+      <c r="A93" s="8"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -14539,7 +14527,7 @@
       <c r="AA93" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
-      <c r="A94" s="9"/>
+      <c r="A94" s="8"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -14568,7 +14556,7 @@
       <c r="AA94" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
-      <c r="A95" s="9"/>
+      <c r="A95" s="8"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -14597,7 +14585,7 @@
       <c r="AA95" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
-      <c r="A96" s="9"/>
+      <c r="A96" s="8"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -14626,7 +14614,7 @@
       <c r="AA96" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
-      <c r="A97" s="9"/>
+      <c r="A97" s="8"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -14655,7 +14643,7 @@
       <c r="AA97" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
-      <c r="A98" s="9"/>
+      <c r="A98" s="8"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -14684,7 +14672,7 @@
       <c r="AA98" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
-      <c r="A99" s="9"/>
+      <c r="A99" s="8"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -14713,7 +14701,7 @@
       <c r="AA99" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
-      <c r="A100" s="9"/>
+      <c r="A100" s="8"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -14742,7 +14730,7 @@
       <c r="AA100" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
-      <c r="A101" s="9"/>
+      <c r="A101" s="8"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -14771,7 +14759,7 @@
       <c r="AA101" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
-      <c r="A102" s="9"/>
+      <c r="A102" s="8"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -14800,7 +14788,7 @@
       <c r="AA102" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
-      <c r="A103" s="9"/>
+      <c r="A103" s="8"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -14829,7 +14817,7 @@
       <c r="AA103" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
-      <c r="A104" s="9"/>
+      <c r="A104" s="8"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -14858,7 +14846,7 @@
       <c r="AA104" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
-      <c r="A105" s="9"/>
+      <c r="A105" s="8"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -14887,7 +14875,7 @@
       <c r="AA105" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
-      <c r="A106" s="9"/>
+      <c r="A106" s="8"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -14916,7 +14904,7 @@
       <c r="AA106" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
-      <c r="A107" s="9"/>
+      <c r="A107" s="8"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -14945,7 +14933,7 @@
       <c r="AA107" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
-      <c r="A108" s="9"/>
+      <c r="A108" s="8"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -14974,7 +14962,7 @@
       <c r="AA108" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
-      <c r="A109" s="9"/>
+      <c r="A109" s="8"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -15003,7 +14991,7 @@
       <c r="AA109" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
-      <c r="A110" s="9"/>
+      <c r="A110" s="8"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -15032,7 +15020,7 @@
       <c r="AA110" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
-      <c r="A111" s="9"/>
+      <c r="A111" s="8"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -15061,7 +15049,7 @@
       <c r="AA111" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
-      <c r="A112" s="9"/>
+      <c r="A112" s="8"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -15090,7 +15078,7 @@
       <c r="AA112" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
-      <c r="A113" s="9"/>
+      <c r="A113" s="8"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -15119,7 +15107,7 @@
       <c r="AA113" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
-      <c r="A114" s="9"/>
+      <c r="A114" s="8"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -15148,7 +15136,7 @@
       <c r="AA114" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
-      <c r="A115" s="9"/>
+      <c r="A115" s="8"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -15177,7 +15165,7 @@
       <c r="AA115" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
-      <c r="A116" s="9"/>
+      <c r="A116" s="8"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -15206,7 +15194,7 @@
       <c r="AA116" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
-      <c r="A117" s="9"/>
+      <c r="A117" s="8"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -15235,7 +15223,7 @@
       <c r="AA117" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
-      <c r="A118" s="9"/>
+      <c r="A118" s="8"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -15264,7 +15252,7 @@
       <c r="AA118" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
-      <c r="A119" s="9"/>
+      <c r="A119" s="8"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -15293,7 +15281,7 @@
       <c r="AA119" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
-      <c r="A120" s="9"/>
+      <c r="A120" s="8"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -15322,7 +15310,7 @@
       <c r="AA120" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
-      <c r="A121" s="9"/>
+      <c r="A121" s="8"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
@@ -15351,7 +15339,7 @@
       <c r="AA121" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
-      <c r="A122" s="9"/>
+      <c r="A122" s="8"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
@@ -15380,7 +15368,7 @@
       <c r="AA122" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
-      <c r="A123" s="9"/>
+      <c r="A123" s="8"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -15409,7 +15397,7 @@
       <c r="AA123" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
-      <c r="A124" s="9"/>
+      <c r="A124" s="8"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -15438,7 +15426,7 @@
       <c r="AA124" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
-      <c r="A125" s="9"/>
+      <c r="A125" s="8"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -15467,7 +15455,7 @@
       <c r="AA125" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
-      <c r="A126" s="9"/>
+      <c r="A126" s="8"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -15496,7 +15484,7 @@
       <c r="AA126" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
-      <c r="A127" s="9"/>
+      <c r="A127" s="8"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -15525,7 +15513,7 @@
       <c r="AA127" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
-      <c r="A128" s="9"/>
+      <c r="A128" s="8"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
@@ -15554,7 +15542,7 @@
       <c r="AA128" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
-      <c r="A129" s="9"/>
+      <c r="A129" s="8"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
@@ -15583,7 +15571,7 @@
       <c r="AA129" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
-      <c r="A130" s="9"/>
+      <c r="A130" s="8"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
@@ -15612,7 +15600,7 @@
       <c r="AA130" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25">
-      <c r="A131" s="9"/>
+      <c r="A131" s="8"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -15641,7 +15629,7 @@
       <c r="AA131" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25">
-      <c r="A132" s="9"/>
+      <c r="A132" s="8"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -15670,7 +15658,7 @@
       <c r="AA132" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25">
-      <c r="A133" s="9"/>
+      <c r="A133" s="8"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -15699,7 +15687,7 @@
       <c r="AA133" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25">
-      <c r="A134" s="9"/>
+      <c r="A134" s="8"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -15728,7 +15716,7 @@
       <c r="AA134" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25">
-      <c r="A135" s="9"/>
+      <c r="A135" s="8"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -15757,7 +15745,7 @@
       <c r="AA135" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25">
-      <c r="A136" s="9"/>
+      <c r="A136" s="8"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -15786,7 +15774,7 @@
       <c r="AA136" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25">
-      <c r="A137" s="9"/>
+      <c r="A137" s="8"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -15815,7 +15803,7 @@
       <c r="AA137" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="17.25">
-      <c r="A138" s="9"/>
+      <c r="A138" s="8"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -15844,7 +15832,7 @@
       <c r="AA138" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25">
-      <c r="A139" s="9"/>
+      <c r="A139" s="8"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -15873,7 +15861,7 @@
       <c r="AA139" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25">
-      <c r="A140" s="9"/>
+      <c r="A140" s="8"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -15902,7 +15890,7 @@
       <c r="AA140" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="17.25">
-      <c r="A141" s="9"/>
+      <c r="A141" s="8"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -15931,7 +15919,7 @@
       <c r="AA141" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="17.25">
-      <c r="A142" s="9"/>
+      <c r="A142" s="8"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
@@ -15960,7 +15948,7 @@
       <c r="AA142" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="17.25">
-      <c r="A143" s="9"/>
+      <c r="A143" s="8"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
@@ -15989,7 +15977,7 @@
       <c r="AA143" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="17.25">
-      <c r="A144" s="9"/>
+      <c r="A144" s="8"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
@@ -16018,7 +16006,7 @@
       <c r="AA144" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="17.25">
-      <c r="A145" s="9"/>
+      <c r="A145" s="8"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -16047,7 +16035,7 @@
       <c r="AA145" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="17.25">
-      <c r="A146" s="9"/>
+      <c r="A146" s="8"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -16076,7 +16064,7 @@
       <c r="AA146" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="17.25">
-      <c r="A147" s="9"/>
+      <c r="A147" s="8"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -16105,7 +16093,7 @@
       <c r="AA147" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="17.25">
-      <c r="A148" s="9"/>
+      <c r="A148" s="8"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -16134,7 +16122,7 @@
       <c r="AA148" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="17.25">
-      <c r="A149" s="9"/>
+      <c r="A149" s="8"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -16163,7 +16151,7 @@
       <c r="AA149" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="17.25">
-      <c r="A150" s="9"/>
+      <c r="A150" s="8"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
@@ -16192,7 +16180,7 @@
       <c r="AA150" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="17.25">
-      <c r="A151" s="9"/>
+      <c r="A151" s="8"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -16221,7 +16209,7 @@
       <c r="AA151" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="17.25">
-      <c r="A152" s="9"/>
+      <c r="A152" s="8"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
@@ -16250,7 +16238,7 @@
       <c r="AA152" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="17.25">
-      <c r="A153" s="9"/>
+      <c r="A153" s="8"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
@@ -16279,7 +16267,7 @@
       <c r="AA153" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="17.25">
-      <c r="A154" s="9"/>
+      <c r="A154" s="8"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
@@ -16308,7 +16296,7 @@
       <c r="AA154" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="17.25">
-      <c r="A155" s="9"/>
+      <c r="A155" s="8"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
@@ -16337,7 +16325,7 @@
       <c r="AA155" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="17.25">
-      <c r="A156" s="9"/>
+      <c r="A156" s="8"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
@@ -16366,7 +16354,7 @@
       <c r="AA156" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="17.25">
-      <c r="A157" s="9"/>
+      <c r="A157" s="8"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
@@ -16395,7 +16383,7 @@
       <c r="AA157" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="17.25">
-      <c r="A158" s="9"/>
+      <c r="A158" s="8"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
@@ -16424,7 +16412,7 @@
       <c r="AA158" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="17.25">
-      <c r="A159" s="9"/>
+      <c r="A159" s="8"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
@@ -16453,7 +16441,7 @@
       <c r="AA159" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="17.25">
-      <c r="A160" s="9"/>
+      <c r="A160" s="8"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -16482,7 +16470,7 @@
       <c r="AA160" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="17.25">
-      <c r="A161" s="9"/>
+      <c r="A161" s="8"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
@@ -16511,7 +16499,7 @@
       <c r="AA161" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="17.25">
-      <c r="A162" s="9"/>
+      <c r="A162" s="8"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
@@ -16540,7 +16528,7 @@
       <c r="AA162" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="17.25">
-      <c r="A163" s="9"/>
+      <c r="A163" s="8"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
@@ -16569,7 +16557,7 @@
       <c r="AA163" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="17.25">
-      <c r="A164" s="9"/>
+      <c r="A164" s="8"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
@@ -16598,7 +16586,7 @@
       <c r="AA164" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="17.25">
-      <c r="A165" s="9"/>
+      <c r="A165" s="8"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -16627,7 +16615,7 @@
       <c r="AA165" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="17.25">
-      <c r="A166" s="9"/>
+      <c r="A166" s="8"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -16656,7 +16644,7 @@
       <c r="AA166" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="17.25">
-      <c r="A167" s="9"/>
+      <c r="A167" s="8"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -16685,7 +16673,7 @@
       <c r="AA167" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="17.25">
-      <c r="A168" s="9"/>
+      <c r="A168" s="8"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -16714,7 +16702,7 @@
       <c r="AA168" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="17.25">
-      <c r="A169" s="9"/>
+      <c r="A169" s="8"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -16743,7 +16731,7 @@
       <c r="AA169" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="17.25">
-      <c r="A170" s="9"/>
+      <c r="A170" s="8"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
@@ -16772,7 +16760,7 @@
       <c r="AA170" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="17.25">
-      <c r="A171" s="9"/>
+      <c r="A171" s="8"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
@@ -16801,7 +16789,7 @@
       <c r="AA171" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="17.25">
-      <c r="A172" s="9"/>
+      <c r="A172" s="8"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -16830,7 +16818,7 @@
       <c r="AA172" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="17.25">
-      <c r="A173" s="9"/>
+      <c r="A173" s="8"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -16859,7 +16847,7 @@
       <c r="AA173" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="17.25">
-      <c r="A174" s="9"/>
+      <c r="A174" s="8"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -16888,7 +16876,7 @@
       <c r="AA174" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="17.25">
-      <c r="A175" s="9"/>
+      <c r="A175" s="8"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -16917,7 +16905,7 @@
       <c r="AA175" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="17.25">
-      <c r="A176" s="9"/>
+      <c r="A176" s="8"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
@@ -16946,7 +16934,7 @@
       <c r="AA176" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="17.25">
-      <c r="A177" s="9"/>
+      <c r="A177" s="8"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
@@ -16975,7 +16963,7 @@
       <c r="AA177" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="17.25">
-      <c r="A178" s="9"/>
+      <c r="A178" s="8"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
@@ -17004,7 +16992,7 @@
       <c r="AA178" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="17.25">
-      <c r="A179" s="9"/>
+      <c r="A179" s="8"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
@@ -17033,7 +17021,7 @@
       <c r="AA179" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="17.25">
-      <c r="A180" s="9"/>
+      <c r="A180" s="8"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
@@ -17062,7 +17050,7 @@
       <c r="AA180" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="17.25">
-      <c r="A181" s="9"/>
+      <c r="A181" s="8"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
@@ -17091,7 +17079,7 @@
       <c r="AA181" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="17.25">
-      <c r="A182" s="9"/>
+      <c r="A182" s="8"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
@@ -17120,7 +17108,7 @@
       <c r="AA182" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="17.25">
-      <c r="A183" s="9"/>
+      <c r="A183" s="8"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
@@ -17149,7 +17137,7 @@
       <c r="AA183" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="17.25">
-      <c r="A184" s="9"/>
+      <c r="A184" s="8"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
@@ -17178,7 +17166,7 @@
       <c r="AA184" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="17.25">
-      <c r="A185" s="9"/>
+      <c r="A185" s="8"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -17207,7 +17195,7 @@
       <c r="AA185" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="17.25">
-      <c r="A186" s="9"/>
+      <c r="A186" s="8"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
@@ -17236,7 +17224,7 @@
       <c r="AA186" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="17.25">
-      <c r="A187" s="9"/>
+      <c r="A187" s="8"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
@@ -17265,7 +17253,7 @@
       <c r="AA187" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="17.25">
-      <c r="A188" s="9"/>
+      <c r="A188" s="8"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
@@ -17294,7 +17282,7 @@
       <c r="AA188" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="17.25">
-      <c r="A189" s="9"/>
+      <c r="A189" s="8"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
@@ -17323,7 +17311,7 @@
       <c r="AA189" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="17.25">
-      <c r="A190" s="9"/>
+      <c r="A190" s="8"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
@@ -17352,7 +17340,7 @@
       <c r="AA190" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="17.25">
-      <c r="A191" s="9"/>
+      <c r="A191" s="8"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
@@ -17381,7 +17369,7 @@
       <c r="AA191" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="17.25">
-      <c r="A192" s="9"/>
+      <c r="A192" s="8"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
@@ -17410,7 +17398,7 @@
       <c r="AA192" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="17.25">
-      <c r="A193" s="9"/>
+      <c r="A193" s="8"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
@@ -17439,7 +17427,7 @@
       <c r="AA193" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="17.25">
-      <c r="A194" s="9"/>
+      <c r="A194" s="8"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
@@ -17468,7 +17456,7 @@
       <c r="AA194" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="17.25">
-      <c r="A195" s="9"/>
+      <c r="A195" s="8"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
@@ -17497,7 +17485,7 @@
       <c r="AA195" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="17.25">
-      <c r="A196" s="9"/>
+      <c r="A196" s="8"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
@@ -17526,7 +17514,7 @@
       <c r="AA196" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="17.25">
-      <c r="A197" s="9"/>
+      <c r="A197" s="8"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
@@ -17555,7 +17543,7 @@
       <c r="AA197" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="17.25">
-      <c r="A198" s="9"/>
+      <c r="A198" s="8"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
@@ -17584,7 +17572,7 @@
       <c r="AA198" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="17.25">
-      <c r="A199" s="9"/>
+      <c r="A199" s="8"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
@@ -17613,7 +17601,7 @@
       <c r="AA199" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="17.25">
-      <c r="A200" s="9"/>
+      <c r="A200" s="8"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
@@ -17657,32 +17645,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="6" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="6" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="5" width="14.005" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="5" width="14.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -17933,7 +17921,7 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="5"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -17961,7 +17949,7 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="5"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -17989,7 +17977,7 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="5"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -18017,7 +18005,7 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="5"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -18045,7 +18033,7 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="5"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -18073,7 +18061,7 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="5"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -18101,7 +18089,7 @@
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="5"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -18129,7 +18117,7 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="5"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -18157,7 +18145,7 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="5"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -18185,7 +18173,7 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="5"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -18213,7 +18201,7 @@
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="5"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -18241,7 +18229,7 @@
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="5"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -18269,7 +18257,7 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="5"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -18297,7 +18285,7 @@
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="5"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -18325,7 +18313,7 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="5"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -18353,7 +18341,7 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="5"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -18381,7 +18369,7 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="5"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -18409,7 +18397,7 @@
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="5"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -18437,7 +18425,7 @@
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="5"/>
+      <c r="D26" s="4"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -18465,7 +18453,7 @@
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="5"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -18493,7 +18481,7 @@
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="5"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -18521,7 +18509,7 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="5"/>
+      <c r="D29" s="4"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -18549,7 +18537,7 @@
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="5"/>
+      <c r="D30" s="4"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -18577,7 +18565,7 @@
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="5"/>
+      <c r="D31" s="4"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -18605,7 +18593,7 @@
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="5"/>
+      <c r="D32" s="4"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -18633,7 +18621,7 @@
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="5"/>
+      <c r="D33" s="4"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -18661,7 +18649,7 @@
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="5"/>
+      <c r="D34" s="4"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -18689,7 +18677,7 @@
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="5"/>
+      <c r="D35" s="4"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -18717,7 +18705,7 @@
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="5"/>
+      <c r="D36" s="4"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -18745,7 +18733,7 @@
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="5"/>
+      <c r="D37" s="4"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -18773,7 +18761,7 @@
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="5"/>
+      <c r="D38" s="4"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -18801,7 +18789,7 @@
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="5"/>
+      <c r="D39" s="4"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -18829,7 +18817,7 @@
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="5"/>
+      <c r="D40" s="4"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -18857,7 +18845,7 @@
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="5"/>
+      <c r="D41" s="4"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -18885,7 +18873,7 @@
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="5"/>
+      <c r="D42" s="4"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -18913,7 +18901,7 @@
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="5"/>
+      <c r="D43" s="4"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -18941,7 +18929,7 @@
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="5"/>
+      <c r="D44" s="4"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -18969,7 +18957,7 @@
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="5"/>
+      <c r="D45" s="4"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -18997,7 +18985,7 @@
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="5"/>
+      <c r="D46" s="4"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -19025,7 +19013,7 @@
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="5"/>
+      <c r="D47" s="4"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -19053,7 +19041,7 @@
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
-      <c r="D48" s="5"/>
+      <c r="D48" s="4"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -19081,7 +19069,7 @@
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
-      <c r="D49" s="5"/>
+      <c r="D49" s="4"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -19109,7 +19097,7 @@
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
-      <c r="D50" s="5"/>
+      <c r="D50" s="4"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -19137,7 +19125,7 @@
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
-      <c r="D51" s="5"/>
+      <c r="D51" s="4"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -19165,7 +19153,7 @@
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
-      <c r="D52" s="5"/>
+      <c r="D52" s="4"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -19193,7 +19181,7 @@
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="5"/>
+      <c r="D53" s="4"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -19221,7 +19209,7 @@
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
-      <c r="D54" s="5"/>
+      <c r="D54" s="4"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -19249,7 +19237,7 @@
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="5"/>
+      <c r="D55" s="4"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -19277,7 +19265,7 @@
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
-      <c r="D56" s="5"/>
+      <c r="D56" s="4"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -19305,7 +19293,7 @@
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
-      <c r="D57" s="5"/>
+      <c r="D57" s="4"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -19333,7 +19321,7 @@
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
-      <c r="D58" s="5"/>
+      <c r="D58" s="4"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -19361,7 +19349,7 @@
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
-      <c r="D59" s="5"/>
+      <c r="D59" s="4"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -19389,7 +19377,7 @@
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
-      <c r="D60" s="5"/>
+      <c r="D60" s="4"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -19417,7 +19405,7 @@
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
-      <c r="D61" s="5"/>
+      <c r="D61" s="4"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -19445,7 +19433,7 @@
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
-      <c r="D62" s="5"/>
+      <c r="D62" s="4"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
@@ -19473,7 +19461,7 @@
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
-      <c r="D63" s="5"/>
+      <c r="D63" s="4"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -19501,7 +19489,7 @@
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
-      <c r="D64" s="5"/>
+      <c r="D64" s="4"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -19529,7 +19517,7 @@
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
-      <c r="D65" s="5"/>
+      <c r="D65" s="4"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
@@ -19557,7 +19545,7 @@
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
-      <c r="D66" s="5"/>
+      <c r="D66" s="4"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
@@ -19585,7 +19573,7 @@
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
-      <c r="D67" s="5"/>
+      <c r="D67" s="4"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
@@ -19613,7 +19601,7 @@
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
-      <c r="D68" s="5"/>
+      <c r="D68" s="4"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -19641,7 +19629,7 @@
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
-      <c r="D69" s="5"/>
+      <c r="D69" s="4"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -19669,7 +19657,7 @@
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
-      <c r="D70" s="5"/>
+      <c r="D70" s="4"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
@@ -19697,7 +19685,7 @@
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
-      <c r="D71" s="5"/>
+      <c r="D71" s="4"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -19725,7 +19713,7 @@
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
-      <c r="D72" s="5"/>
+      <c r="D72" s="4"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -19753,7 +19741,7 @@
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
-      <c r="D73" s="5"/>
+      <c r="D73" s="4"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
@@ -19781,7 +19769,7 @@
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
-      <c r="D74" s="5"/>
+      <c r="D74" s="4"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -19809,7 +19797,7 @@
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
-      <c r="D75" s="5"/>
+      <c r="D75" s="4"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -19837,7 +19825,7 @@
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
-      <c r="D76" s="5"/>
+      <c r="D76" s="4"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
@@ -19865,7 +19853,7 @@
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
-      <c r="D77" s="5"/>
+      <c r="D77" s="4"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -19893,7 +19881,7 @@
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
-      <c r="D78" s="5"/>
+      <c r="D78" s="4"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
@@ -19921,7 +19909,7 @@
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
-      <c r="D79" s="5"/>
+      <c r="D79" s="4"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
@@ -19949,7 +19937,7 @@
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
-      <c r="D80" s="5"/>
+      <c r="D80" s="4"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
@@ -19977,7 +19965,7 @@
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
-      <c r="D81" s="5"/>
+      <c r="D81" s="4"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
@@ -20005,7 +19993,7 @@
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
-      <c r="D82" s="5"/>
+      <c r="D82" s="4"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
@@ -20033,7 +20021,7 @@
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
-      <c r="D83" s="5"/>
+      <c r="D83" s="4"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
@@ -20061,7 +20049,7 @@
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
-      <c r="D84" s="5"/>
+      <c r="D84" s="4"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -20089,7 +20077,7 @@
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
-      <c r="D85" s="5"/>
+      <c r="D85" s="4"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
@@ -20117,7 +20105,7 @@
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
-      <c r="D86" s="5"/>
+      <c r="D86" s="4"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
@@ -20145,7 +20133,7 @@
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
-      <c r="D87" s="5"/>
+      <c r="D87" s="4"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
@@ -20173,7 +20161,7 @@
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
-      <c r="D88" s="5"/>
+      <c r="D88" s="4"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
@@ -20201,7 +20189,7 @@
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
-      <c r="D89" s="5"/>
+      <c r="D89" s="4"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
@@ -20229,7 +20217,7 @@
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
-      <c r="D90" s="5"/>
+      <c r="D90" s="4"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
@@ -20257,7 +20245,7 @@
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
-      <c r="D91" s="5"/>
+      <c r="D91" s="4"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
@@ -20285,7 +20273,7 @@
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
-      <c r="D92" s="5"/>
+      <c r="D92" s="4"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
@@ -20313,7 +20301,7 @@
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
-      <c r="D93" s="5"/>
+      <c r="D93" s="4"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
@@ -20341,7 +20329,7 @@
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
-      <c r="D94" s="5"/>
+      <c r="D94" s="4"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -20369,7 +20357,7 @@
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
-      <c r="D95" s="5"/>
+      <c r="D95" s="4"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
@@ -20397,7 +20385,7 @@
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
-      <c r="D96" s="5"/>
+      <c r="D96" s="4"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
@@ -20425,7 +20413,7 @@
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
-      <c r="D97" s="5"/>
+      <c r="D97" s="4"/>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
@@ -20453,7 +20441,7 @@
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
-      <c r="D98" s="5"/>
+      <c r="D98" s="4"/>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
@@ -20481,7 +20469,7 @@
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
-      <c r="D99" s="5"/>
+      <c r="D99" s="4"/>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
@@ -20509,7 +20497,7 @@
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
-      <c r="D100" s="5"/>
+      <c r="D100" s="4"/>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
@@ -20537,7 +20525,7 @@
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
-      <c r="D101" s="5"/>
+      <c r="D101" s="4"/>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
@@ -20565,7 +20553,7 @@
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
-      <c r="D102" s="5"/>
+      <c r="D102" s="4"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
@@ -20593,7 +20581,7 @@
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
-      <c r="D103" s="5"/>
+      <c r="D103" s="4"/>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
@@ -20621,7 +20609,7 @@
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
-      <c r="D104" s="5"/>
+      <c r="D104" s="4"/>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -20649,7 +20637,7 @@
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
-      <c r="D105" s="5"/>
+      <c r="D105" s="4"/>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
@@ -20677,7 +20665,7 @@
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
-      <c r="D106" s="5"/>
+      <c r="D106" s="4"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
@@ -20705,7 +20693,7 @@
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
-      <c r="D107" s="5"/>
+      <c r="D107" s="4"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
@@ -20733,7 +20721,7 @@
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
-      <c r="D108" s="5"/>
+      <c r="D108" s="4"/>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
@@ -20761,7 +20749,7 @@
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
-      <c r="D109" s="5"/>
+      <c r="D109" s="4"/>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
@@ -20789,7 +20777,7 @@
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
-      <c r="D110" s="5"/>
+      <c r="D110" s="4"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
@@ -20817,7 +20805,7 @@
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
-      <c r="D111" s="5"/>
+      <c r="D111" s="4"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
@@ -20845,7 +20833,7 @@
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
-      <c r="D112" s="5"/>
+      <c r="D112" s="4"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
@@ -20873,7 +20861,7 @@
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
-      <c r="D113" s="5"/>
+      <c r="D113" s="4"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
@@ -20901,7 +20889,7 @@
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
-      <c r="D114" s="5"/>
+      <c r="D114" s="4"/>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -20929,7 +20917,7 @@
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
-      <c r="D115" s="5"/>
+      <c r="D115" s="4"/>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
@@ -20957,7 +20945,7 @@
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
-      <c r="D116" s="5"/>
+      <c r="D116" s="4"/>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
@@ -20985,7 +20973,7 @@
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
-      <c r="D117" s="5"/>
+      <c r="D117" s="4"/>
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
@@ -21013,7 +21001,7 @@
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
-      <c r="D118" s="5"/>
+      <c r="D118" s="4"/>
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
@@ -21041,7 +21029,7 @@
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
-      <c r="D119" s="5"/>
+      <c r="D119" s="4"/>
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
@@ -21069,7 +21057,7 @@
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
-      <c r="D120" s="5"/>
+      <c r="D120" s="4"/>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
@@ -21097,7 +21085,7 @@
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
-      <c r="D121" s="5"/>
+      <c r="D121" s="4"/>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
@@ -21125,7 +21113,7 @@
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
-      <c r="D122" s="5"/>
+      <c r="D122" s="4"/>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
@@ -21153,7 +21141,7 @@
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
-      <c r="D123" s="5"/>
+      <c r="D123" s="4"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
@@ -21181,7 +21169,7 @@
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
-      <c r="D124" s="5"/>
+      <c r="D124" s="4"/>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -21209,7 +21197,7 @@
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
-      <c r="D125" s="5"/>
+      <c r="D125" s="4"/>
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
@@ -21237,7 +21225,7 @@
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
-      <c r="D126" s="5"/>
+      <c r="D126" s="4"/>
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
@@ -21265,7 +21253,7 @@
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
-      <c r="D127" s="5"/>
+      <c r="D127" s="4"/>
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
@@ -21293,7 +21281,7 @@
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
-      <c r="D128" s="5"/>
+      <c r="D128" s="4"/>
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
@@ -21321,7 +21309,7 @@
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
-      <c r="D129" s="5"/>
+      <c r="D129" s="4"/>
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
@@ -21349,7 +21337,7 @@
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
-      <c r="D130" s="5"/>
+      <c r="D130" s="4"/>
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
@@ -21377,7 +21365,7 @@
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
-      <c r="D131" s="5"/>
+      <c r="D131" s="4"/>
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
@@ -21405,7 +21393,7 @@
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
-      <c r="D132" s="5"/>
+      <c r="D132" s="4"/>
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
@@ -21433,7 +21421,7 @@
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
-      <c r="D133" s="5"/>
+      <c r="D133" s="4"/>
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
@@ -21461,7 +21449,7 @@
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
-      <c r="D134" s="5"/>
+      <c r="D134" s="4"/>
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -21489,7 +21477,7 @@
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
-      <c r="D135" s="5"/>
+      <c r="D135" s="4"/>
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
@@ -21517,7 +21505,7 @@
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
-      <c r="D136" s="5"/>
+      <c r="D136" s="4"/>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
@@ -21545,7 +21533,7 @@
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
-      <c r="D137" s="5"/>
+      <c r="D137" s="4"/>
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
@@ -21573,7 +21561,7 @@
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
-      <c r="D138" s="5"/>
+      <c r="D138" s="4"/>
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
@@ -21601,7 +21589,7 @@
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
-      <c r="D139" s="5"/>
+      <c r="D139" s="4"/>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
@@ -21629,7 +21617,7 @@
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
-      <c r="D140" s="5"/>
+      <c r="D140" s="4"/>
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
@@ -21657,7 +21645,7 @@
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
-      <c r="D141" s="5"/>
+      <c r="D141" s="4"/>
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
@@ -21685,7 +21673,7 @@
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
-      <c r="D142" s="5"/>
+      <c r="D142" s="4"/>
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
@@ -21713,7 +21701,7 @@
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
-      <c r="D143" s="5"/>
+      <c r="D143" s="4"/>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
@@ -21741,7 +21729,7 @@
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
-      <c r="D144" s="5"/>
+      <c r="D144" s="4"/>
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -21769,7 +21757,7 @@
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
-      <c r="D145" s="5"/>
+      <c r="D145" s="4"/>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
@@ -21797,7 +21785,7 @@
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
-      <c r="D146" s="5"/>
+      <c r="D146" s="4"/>
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
@@ -21825,7 +21813,7 @@
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
-      <c r="D147" s="5"/>
+      <c r="D147" s="4"/>
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
@@ -21853,7 +21841,7 @@
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
-      <c r="D148" s="5"/>
+      <c r="D148" s="4"/>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
@@ -21881,7 +21869,7 @@
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
-      <c r="D149" s="5"/>
+      <c r="D149" s="4"/>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
@@ -21909,7 +21897,7 @@
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
-      <c r="D150" s="5"/>
+      <c r="D150" s="4"/>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
@@ -21937,7 +21925,7 @@
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
-      <c r="D151" s="5"/>
+      <c r="D151" s="4"/>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
@@ -21965,7 +21953,7 @@
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
-      <c r="D152" s="5"/>
+      <c r="D152" s="4"/>
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
@@ -21993,7 +21981,7 @@
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
-      <c r="D153" s="5"/>
+      <c r="D153" s="4"/>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
@@ -22021,7 +22009,7 @@
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
-      <c r="D154" s="5"/>
+      <c r="D154" s="4"/>
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -22049,7 +22037,7 @@
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
-      <c r="D155" s="5"/>
+      <c r="D155" s="4"/>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
@@ -22077,7 +22065,7 @@
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
-      <c r="D156" s="5"/>
+      <c r="D156" s="4"/>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
@@ -22105,7 +22093,7 @@
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
-      <c r="D157" s="5"/>
+      <c r="D157" s="4"/>
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
@@ -22133,7 +22121,7 @@
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
-      <c r="D158" s="5"/>
+      <c r="D158" s="4"/>
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
@@ -22161,7 +22149,7 @@
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
-      <c r="D159" s="5"/>
+      <c r="D159" s="4"/>
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
@@ -22189,7 +22177,7 @@
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
-      <c r="D160" s="5"/>
+      <c r="D160" s="4"/>
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
@@ -22217,7 +22205,7 @@
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
-      <c r="D161" s="5"/>
+      <c r="D161" s="4"/>
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
@@ -22245,7 +22233,7 @@
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
-      <c r="D162" s="5"/>
+      <c r="D162" s="4"/>
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
@@ -22273,7 +22261,7 @@
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
-      <c r="D163" s="5"/>
+      <c r="D163" s="4"/>
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
@@ -22301,7 +22289,7 @@
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
-      <c r="D164" s="5"/>
+      <c r="D164" s="4"/>
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -22329,7 +22317,7 @@
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
-      <c r="D165" s="5"/>
+      <c r="D165" s="4"/>
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
@@ -22357,7 +22345,7 @@
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
-      <c r="D166" s="5"/>
+      <c r="D166" s="4"/>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
@@ -22385,7 +22373,7 @@
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
-      <c r="D167" s="5"/>
+      <c r="D167" s="4"/>
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
@@ -22413,7 +22401,7 @@
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
-      <c r="D168" s="5"/>
+      <c r="D168" s="4"/>
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
@@ -22441,7 +22429,7 @@
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
-      <c r="D169" s="5"/>
+      <c r="D169" s="4"/>
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
@@ -22469,7 +22457,7 @@
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
-      <c r="D170" s="5"/>
+      <c r="D170" s="4"/>
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
@@ -22497,7 +22485,7 @@
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
-      <c r="D171" s="5"/>
+      <c r="D171" s="4"/>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
@@ -22525,7 +22513,7 @@
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
-      <c r="D172" s="5"/>
+      <c r="D172" s="4"/>
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
@@ -22553,7 +22541,7 @@
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
-      <c r="D173" s="5"/>
+      <c r="D173" s="4"/>
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
@@ -22581,7 +22569,7 @@
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
-      <c r="D174" s="5"/>
+      <c r="D174" s="4"/>
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -22609,7 +22597,7 @@
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
-      <c r="D175" s="5"/>
+      <c r="D175" s="4"/>
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
@@ -22637,7 +22625,7 @@
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
-      <c r="D176" s="5"/>
+      <c r="D176" s="4"/>
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
@@ -22665,7 +22653,7 @@
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
-      <c r="D177" s="5"/>
+      <c r="D177" s="4"/>
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
@@ -22693,7 +22681,7 @@
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
-      <c r="D178" s="5"/>
+      <c r="D178" s="4"/>
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
@@ -22721,7 +22709,7 @@
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
-      <c r="D179" s="5"/>
+      <c r="D179" s="4"/>
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
@@ -22749,7 +22737,7 @@
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
-      <c r="D180" s="5"/>
+      <c r="D180" s="4"/>
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
@@ -22777,7 +22765,7 @@
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
-      <c r="D181" s="5"/>
+      <c r="D181" s="4"/>
       <c r="E181" s="3"/>
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
@@ -22805,7 +22793,7 @@
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
-      <c r="D182" s="5"/>
+      <c r="D182" s="4"/>
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
@@ -22833,7 +22821,7 @@
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
-      <c r="D183" s="5"/>
+      <c r="D183" s="4"/>
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
@@ -22861,7 +22849,7 @@
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
-      <c r="D184" s="5"/>
+      <c r="D184" s="4"/>
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
@@ -22889,7 +22877,7 @@
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
-      <c r="D185" s="5"/>
+      <c r="D185" s="4"/>
       <c r="E185" s="3"/>
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
@@ -22917,7 +22905,7 @@
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
-      <c r="D186" s="5"/>
+      <c r="D186" s="4"/>
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
@@ -22945,7 +22933,7 @@
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
-      <c r="D187" s="5"/>
+      <c r="D187" s="4"/>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
@@ -22973,7 +22961,7 @@
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
-      <c r="D188" s="5"/>
+      <c r="D188" s="4"/>
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
@@ -23001,7 +22989,7 @@
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
-      <c r="D189" s="5"/>
+      <c r="D189" s="4"/>
       <c r="E189" s="3"/>
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
@@ -23029,7 +23017,7 @@
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
-      <c r="D190" s="5"/>
+      <c r="D190" s="4"/>
       <c r="E190" s="3"/>
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
@@ -23057,7 +23045,7 @@
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
-      <c r="D191" s="5"/>
+      <c r="D191" s="4"/>
       <c r="E191" s="3"/>
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
@@ -23085,7 +23073,7 @@
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
-      <c r="D192" s="5"/>
+      <c r="D192" s="4"/>
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
@@ -23113,7 +23101,7 @@
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
-      <c r="D193" s="5"/>
+      <c r="D193" s="4"/>
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
@@ -23141,7 +23129,7 @@
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
-      <c r="D194" s="5"/>
+      <c r="D194" s="4"/>
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
@@ -23169,7 +23157,7 @@
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
-      <c r="D195" s="5"/>
+      <c r="D195" s="4"/>
       <c r="E195" s="3"/>
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
@@ -23197,7 +23185,7 @@
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
-      <c r="D196" s="5"/>
+      <c r="D196" s="4"/>
       <c r="E196" s="3"/>
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
@@ -23225,7 +23213,7 @@
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
-      <c r="D197" s="5"/>
+      <c r="D197" s="4"/>
       <c r="E197" s="3"/>
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
@@ -23253,7 +23241,7 @@
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
-      <c r="D198" s="5"/>
+      <c r="D198" s="4"/>
       <c r="E198" s="3"/>
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
@@ -23281,7 +23269,7 @@
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
-      <c r="D199" s="5"/>
+      <c r="D199" s="4"/>
       <c r="E199" s="3"/>
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
@@ -23309,7 +23297,7 @@
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
-      <c r="D200" s="5"/>
+      <c r="D200" s="4"/>
       <c r="E200" s="3"/>
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
